--- a/NformTester/NformTester/Keywordscripts/600.20.30.20_ConfigureRuncommandAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.20_ConfigureRuncommandAction.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7513" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7525" uniqueCount="850">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4074,7 +4074,105 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4869,10 +4967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5088,7 +5186,7 @@
         <v>765</v>
       </c>
       <c r="B7" s="4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -6747,14 +6845,12 @@
         <v>306</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>824</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -6767,13 +6863,13 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>306</v>
+        <v>834</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>2</v>
@@ -6791,13 +6887,13 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>840</v>
+        <v>834</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>2</v>
@@ -6815,16 +6911,20 @@
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F75" s="5">
-        <v>5</v>
-      </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>824</v>
+      </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -6843,7 +6943,7 @@
         <v>306</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>2</v>
@@ -6856,16 +6956,22 @@
       <c r="M76" s="5"/>
       <c r="N76" s="16"/>
     </row>
-    <row r="77" spans="3:14" ht="15">
+    <row r="77" spans="3:14">
       <c r="C77" s="5">
         <v>76</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="D77" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -6878,91 +6984,81 @@
       <c r="C78" s="5">
         <v>77</v>
       </c>
-      <c r="D78" s="19" t="s">
-        <v>842</v>
+      <c r="D78" s="8" t="s">
+        <v>785</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="F78" s="20">
-        <v>5</v>
-      </c>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="22"/>
+        <v>756</v>
+      </c>
+      <c r="F78" s="5">
+        <v>5</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="16"/>
     </row>
     <row r="79" spans="3:14">
       <c r="C79" s="5">
         <v>78</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="8" t="s">
         <v>786</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="22"/>
+        <v>306</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="3:14">
+    <row r="80" spans="3:14" ht="15">
       <c r="C80" s="5">
         <v>79</v>
       </c>
-      <c r="D80" s="19" t="s">
-        <v>844</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="22"/>
+      <c r="D80" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="16"/>
     </row>
     <row r="81" spans="3:14">
       <c r="C81" s="5">
         <v>80</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>845</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="20" t="s">
-        <v>789</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="F81" s="20">
+        <v>5</v>
+      </c>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
       <c r="K81" s="20"/>
@@ -6970,24 +7066,24 @@
       <c r="M81" s="20"/>
       <c r="N81" s="22"/>
     </row>
-    <row r="82" spans="3:14" ht="14.25">
+    <row r="82" spans="3:14">
       <c r="C82" s="5">
         <v>81</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>844</v>
+        <v>786</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>845</v>
+        <v>19</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G82" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H82" s="24"/>
-      <c r="I82" s="20"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
       <c r="J82" s="20"/>
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
@@ -7001,17 +7097,17 @@
       <c r="D83" s="19" t="s">
         <v>844</v>
       </c>
-      <c r="E83" s="20" t="s">
-        <v>585</v>
+      <c r="E83" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="H83" s="11"/>
-      <c r="I83" s="20"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
@@ -7029,34 +7125,38 @@
         <v>845</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="I84" s="20"/>
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
       <c r="M84" s="20"/>
       <c r="N84" s="22"/>
     </row>
-    <row r="85" spans="3:14">
+    <row r="85" spans="3:14" ht="14.25">
       <c r="C85" s="5">
         <v>84</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>785</v>
+        <v>844</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="F85" s="20">
-        <v>3</v>
-      </c>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
+        <v>845</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="24"/>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
@@ -7064,67 +7164,161 @@
       <c r="M85" s="20"/>
       <c r="N85" s="22"/>
     </row>
+    <row r="86" spans="3:14">
+      <c r="C86" s="5">
+        <v>85</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="22"/>
+    </row>
+    <row r="87" spans="3:14">
+      <c r="C87" s="5">
+        <v>86</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="22"/>
+    </row>
+    <row r="88" spans="3:14">
+      <c r="C88" s="5">
+        <v>87</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="F88" s="20">
+        <v>3</v>
+      </c>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="22"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N65">
-    <cfRule type="cellIs" dxfId="11" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="37" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="38" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N65">
-    <cfRule type="cellIs" dxfId="9" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N65">
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:N37">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N85">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N38:N88">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N73:N74">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N73:N74">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N73:N74">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D27:D37 D8:D13 D15 D23:D24 D54:D60 D46:D52 D71:D76 D62:D68 D79 D85 D39:D44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D27:D37 D8:D13 D15 D23:D24 D54:D60 D46:D52 D39:D44 D62:D68 D82 D88 D71:D79">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G80 G82:G85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G85:G88 G2:G83">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43 F45:F57 F59:F85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43 F45:F57 F59:F88">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E88">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.20_ConfigureRuncommandAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.20_ConfigureRuncommandAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1204,12 +1204,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7525" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7525" uniqueCount="849">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3693,14 +3693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3822,6 +3814,9 @@
   <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
   </si>
 </sst>
 </file>
@@ -4069,68 +4064,12 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -4683,7 +4622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4969,14 +4908,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="6.125" customWidth="1"/>
     <col min="5" max="5" width="60.875" customWidth="1"/>
     <col min="6" max="6" width="59.625" customWidth="1"/>
@@ -5192,7 +5131,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="5"/>
@@ -5314,7 +5253,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -5525,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="5"/>
@@ -5544,7 +5483,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>355</v>
@@ -5739,7 +5678,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="5"/>
@@ -5817,7 +5756,7 @@
         <v>56</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -5894,7 +5833,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>817</v>
+        <v>848</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
@@ -5916,10 +5855,10 @@
         <v>394</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -5939,13 +5878,13 @@
         <v>391</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
@@ -6031,7 +5970,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -6082,7 +6021,7 @@
         <v>27</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -6103,7 +6042,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>2</v>
@@ -6127,7 +6066,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>3</v>
@@ -6171,10 +6110,10 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F44" s="5">
         <v>2</v>
@@ -6193,7 +6132,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="20"/>
@@ -6241,7 +6180,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>2</v>
@@ -6270,8 +6209,8 @@
       <c r="G48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>816</v>
+      <c r="H48" s="20" t="s">
+        <v>848</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -6381,7 +6320,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="5"/>
@@ -6399,7 +6338,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>19</v>
@@ -6423,13 +6362,13 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>2</v>
@@ -6447,13 +6386,13 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>57</v>
@@ -6475,7 +6414,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>19</v>
@@ -6499,10 +6438,10 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F58" s="5">
         <v>2</v>
@@ -6524,16 +6463,16 @@
         <v>786</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="5"/>
@@ -6550,7 +6489,7 @@
         <v>786</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>99</v>
@@ -6571,7 +6510,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -6589,7 +6528,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>19</v>
@@ -6613,7 +6552,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>19</v>
@@ -6637,7 +6576,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>306</v>
@@ -6649,7 +6588,7 @@
         <v>56</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -6663,7 +6602,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>306</v>
@@ -6699,7 +6638,7 @@
         <v>56</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -6725,10 +6664,10 @@
         <v>7</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="J67" s="5" t="b">
         <v>1</v>
@@ -6863,7 +6802,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>19</v>
@@ -6887,7 +6826,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>19</v>
@@ -6923,7 +6862,7 @@
         <v>56</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -6964,7 +6903,7 @@
         <v>786</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>200</v>
@@ -7031,7 +6970,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="5"/>
@@ -7049,10 +6988,10 @@
         <v>80</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F81" s="20">
         <v>5</v>
@@ -7095,7 +7034,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>19</v>
@@ -7119,10 +7058,10 @@
         <v>83</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F84" s="20" t="s">
         <v>578</v>
@@ -7145,10 +7084,10 @@
         <v>84</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F85" s="20" t="s">
         <v>184</v>
@@ -7169,7 +7108,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E86" s="20" t="s">
         <v>585</v>
@@ -7193,10 +7132,10 @@
         <v>86</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F87" s="20" t="s">
         <v>99</v>
@@ -7220,7 +7159,7 @@
         <v>785</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F88" s="20">
         <v>3</v>
@@ -7237,74 +7176,74 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N65">
-    <cfRule type="cellIs" dxfId="23" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="37" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="38" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N65">
-    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N65">
-    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:N37">
-    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:N88">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73:N74">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73:N74">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73:N74">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.20_ConfigureRuncommandAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.20_ConfigureRuncommandAction.xlsx
@@ -3808,15 +3808,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\test.bat"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$NAME_SearchStart_0$</t>
+  </si>
+  <si>
+    <t>"C:\runcommand.bat"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4908,8 +4908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5464,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="5"/>
@@ -5483,7 +5483,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>355</v>
@@ -5833,7 +5833,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
@@ -6210,7 +6210,7 @@
         <v>56</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
